--- a/data/TASK 2.3.4 2023-2024 - Flusso Campo Prova.xlsx
+++ b/data/TASK 2.3.4 2023-2024 - Flusso Campo Prova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://consorziagrariditalia.sharepoint.com/sites/SitoSHP_CAI/Documenti condivisi/Sede Centrale/Tecnici e R&amp;D/ricercasviluppo/Cristiani Claudio/PROGETTO PNRR AGRITECH/PROGETTO PNRR/REPORT PROGETTO GENERALE/TASK 2.3.4 ANNATA 2023-2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveunibo-my.sharepoint.com/personal/matteo_francia2_studio_unibo_it/Documents/Documents/repos/dataset-pnrr-spoke2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{21268A58-C046-4C4D-AA89-AD915D8E29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A97AF7E-27DF-4729-B85A-9AF937F1C49A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{21268A58-C046-4C4D-AA89-AD915D8E29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7140B70-824E-4A33-8DFA-79A598031E12}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{06003F17-5CB1-44B8-838E-5C3C1E26A2CC}"/>
+    <workbookView xWindow="59445" yWindow="17760" windowWidth="9795" windowHeight="4275" xr2:uid="{06003F17-5CB1-44B8-838E-5C3C1E26A2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -433,16 +436,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -453,67 +456,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -526,14 +529,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="8d0ad65a-05b0-4576-ba97-3fba7ef64242" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,21 +779,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8d0ad65a-05b0-4576-ba97-3fba7ef64242" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E264EDB-30FE-4E23-B1A7-B32368D792D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{399690D4-4BC1-4AB1-B98C-65A6D96BEA41}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8d0ad65a-05b0-4576-ba97-3fba7ef64242"/>
-    <ds:schemaRef ds:uri="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -817,9 +817,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{399690D4-4BC1-4AB1-B98C-65A6D96BEA41}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E264EDB-30FE-4E23-B1A7-B32368D792D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8d0ad65a-05b0-4576-ba97-3fba7ef64242"/>
+    <ds:schemaRef ds:uri="ec9f8fc5-8766-4d78-a9a6-acc81b8e5366"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>